--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/questionnaire-s37</t>
+    <t>http://science37.com/fhir/StructureDefinition/questionnaire-s37</t>
   </si>
   <si>
     <t>Version</t>
@@ -1011,7 +1011,7 @@
     <t>Settings</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/s37-settings}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/s37-settings}
 </t>
   </si>
   <si>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -6309,7 +6309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>345</v>
       </c>
@@ -6319,13 +6319,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -1015,7 +1015,7 @@
 </t>
   </si>
   <si>
-    <t>Gerneral Settings Extension</t>
+    <t>S37 Item Setting Extensions applied to Questionnaire.item</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -1015,7 +1015,7 @@
 </t>
   </si>
   <si>
-    <t>S37 Item Setting Extensions applied to Questionnaire.item</t>
+    <t>S37 Extension to Questionnaire.item</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="466">
   <si>
     <t>Property</t>
   </si>
@@ -419,33 +419,51 @@
     <t>Questionnaire.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>UnknownStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/unknown-status}
+</t>
+  </si>
+  <si>
+    <t>S37 Extension to Questionnaire of Unknown status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Questionnaire.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Questionnaire.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -453,6 +471,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -992,19 +1013,6 @@
     <t>Questionnaire.item.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -1016,10 +1024,6 @@
   </si>
   <si>
     <t>S37 Extension to Questionnaire.item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -1178,6 +1182,9 @@
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1788,7 +1795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1798,7 +1805,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.39453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2761,7 +2768,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2780,17 +2787,15 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -2827,16 +2832,14 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>135</v>
@@ -2857,7 +2860,7 @@
         <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2871,43 +2874,41 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2964,7 +2965,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>136</v>
@@ -2973,7 +2974,7 @@
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -2987,30 +2988,30 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>143</v>
@@ -3071,28 +3072,28 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3103,7 +3104,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3114,7 +3115,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
@@ -3126,19 +3127,19 @@
         <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3187,13 +3188,13 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -3202,16 +3203,16 @@
         <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3219,7 +3220,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3230,7 +3231,7 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
@@ -3242,18 +3243,20 @@
         <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3301,13 +3304,13 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -3316,16 +3319,16 @@
         <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3333,7 +3336,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3359,17 +3362,15 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3426,19 +3427,19 @@
         <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3483,7 +3484,9 @@
       <c r="M15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3540,16 +3543,16 @@
         <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
@@ -3574,7 +3577,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
@@ -3583,21 +3586,21 @@
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>79</v>
@@ -3660,10 +3663,10 @@
         <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
@@ -3677,7 +3680,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3685,22 +3688,22 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>186</v>
@@ -3708,10 +3711,10 @@
       <c r="L17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="M17" s="2"/>
+      <c r="N17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3735,13 +3738,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3759,13 +3762,13 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -3774,13 +3777,13 @@
         <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3791,7 +3794,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3799,7 +3802,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
@@ -3808,26 +3811,24 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3851,13 +3852,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3875,10 +3876,10 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>85</v>
@@ -3890,13 +3891,13 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -3907,7 +3908,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3918,7 +3919,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
@@ -3930,7 +3931,7 @@
         <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>203</v>
@@ -3939,9 +3940,11 @@
         <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3965,13 +3968,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -3989,13 +3992,13 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -4004,13 +4007,13 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4021,18 +4024,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4044,16 +4047,16 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4079,13 +4082,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4103,13 +4106,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4118,13 +4121,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4135,11 +4138,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4158,20 +4161,18 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4234,13 +4235,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4251,7 +4252,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4262,7 +4263,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4274,18 +4275,20 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4333,13 +4336,13 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -4348,13 +4351,13 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4365,7 +4368,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4376,7 +4379,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -4385,19 +4388,19 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4447,13 +4450,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4462,10 +4465,10 @@
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4479,7 +4482,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4490,7 +4493,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4499,23 +4502,21 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4563,13 +4564,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4578,10 +4579,10 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4595,7 +4596,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4618,18 +4619,20 @@
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4653,13 +4656,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4677,7 +4680,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4692,10 +4695,10 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4709,7 +4712,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4720,7 +4723,7 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4729,19 +4732,19 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4767,13 +4770,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4791,13 +4794,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4806,16 +4809,16 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -4823,11 +4826,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4846,18 +4849,18 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4920,16 +4923,16 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -4941,7 +4944,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4960,7 +4963,7 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>272</v>
@@ -4968,10 +4971,10 @@
       <c r="L28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5037,13 +5040,13 @@
         <v>275</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5051,7 +5054,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5074,7 +5077,7 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>278</v>
@@ -5085,9 +5088,7 @@
       <c r="M29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5150,16 +5151,16 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5167,7 +5168,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5187,22 +5188,22 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5251,7 +5252,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5266,16 +5267,16 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5283,7 +5284,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5294,7 +5295,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5306,15 +5307,17 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
         <v>295</v>
       </c>
@@ -5341,13 +5344,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5365,13 +5368,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5380,16 +5383,16 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5397,7 +5400,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5417,21 +5420,21 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5455,13 +5458,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5479,7 +5482,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5488,16 +5491,16 @@
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
@@ -5511,7 +5514,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5522,7 +5525,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5534,15 +5537,17 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5591,25 +5596,25 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
@@ -5623,7 +5628,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5631,10 +5636,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5646,13 +5651,13 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5691,36 +5696,38 @@
         <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AB34" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5731,13 +5738,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B35" t="s" s="2">
         <v>319</v>
       </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5746,10 +5751,10 @@
         <v>85</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5758,13 +5763,13 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5803,19 +5808,17 @@
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5824,7 +5827,7 @@
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>136</v>
@@ -5845,45 +5848,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="C36" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5940,7 +5941,7 @@
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>136</v>
@@ -5949,7 +5950,7 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
@@ -5963,42 +5964,42 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
+        <v>145</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>332</v>
+        <v>146</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6050,22 +6051,22 @@
         <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>333</v>
+        <v>128</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
@@ -6077,9 +6078,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6093,7 +6094,7 @@
         <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6102,19 +6103,19 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6163,10 +6164,10 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>85</v>
@@ -6181,7 +6182,7 @@
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -6193,9 +6194,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6203,13 +6204,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6218,19 +6219,19 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6255,13 +6256,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6279,16 +6280,16 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>97</v>
@@ -6297,7 +6298,7 @@
         <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
@@ -6311,18 +6312,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6334,19 +6335,19 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6371,13 +6372,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6395,16 +6396,16 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>97</v>
@@ -6413,7 +6414,7 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -6425,23 +6426,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6453,15 +6454,17 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6527,7 +6530,7 @@
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>240</v>
+        <v>352</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
@@ -6539,9 +6542,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6555,7 +6558,7 @@
         <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6564,20 +6567,18 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6601,13 +6602,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6625,10 +6626,10 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>85</v>
@@ -6643,7 +6644,7 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>363</v>
+        <v>246</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
@@ -6657,7 +6658,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6665,34 +6666,34 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6717,13 +6718,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6741,25 +6742,25 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
@@ -6773,7 +6774,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6784,28 +6785,32 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6853,25 +6858,25 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6889,14 +6894,14 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -6908,17 +6913,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -6967,25 +6970,25 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
@@ -6999,11 +7002,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7016,26 +7019,24 @@
         <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7101,7 +7102,7 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
@@ -7115,41 +7116,43 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7197,25 +7200,25 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>363</v>
+        <v>128</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
@@ -7229,7 +7232,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7252,15 +7255,17 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7285,13 +7290,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7309,7 +7314,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>85</v>
@@ -7327,7 +7332,7 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
@@ -7341,7 +7346,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7364,13 +7369,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>384</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7397,13 +7402,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7421,7 +7426,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>85</v>
@@ -7430,7 +7435,7 @@
         <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>97</v>
@@ -7439,7 +7444,7 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
@@ -7453,7 +7458,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7461,7 +7466,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>85</v>
@@ -7476,17 +7481,15 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>105</v>
+        <v>386</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7511,13 +7514,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7535,16 +7538,16 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>97</v>
@@ -7553,7 +7556,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7565,9 +7568,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7575,13 +7578,13 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7590,24 +7593,22 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P51" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7627,13 +7628,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7651,7 +7652,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7660,7 +7661,7 @@
         <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>97</v>
@@ -7669,7 +7670,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7683,7 +7684,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7706,79 +7707,77 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Q52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH52" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="Q52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>97</v>
@@ -7787,7 +7786,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7799,9 +7798,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7809,13 +7808,13 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7824,24 +7823,26 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P53" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
         <v>79</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7894,7 +7895,7 @@
         <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>97</v>
@@ -7903,7 +7904,7 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -7917,7 +7918,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7940,18 +7941,20 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>415</v>
+        <v>202</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8008,7 +8011,7 @@
         <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>97</v>
@@ -8017,7 +8020,7 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -8026,12 +8029,12 @@
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8054,16 +8057,16 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8113,7 +8116,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8122,7 +8125,7 @@
         <v>85</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>97</v>
@@ -8131,7 +8134,7 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -8140,12 +8143,12 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8156,7 +8159,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8168,16 +8171,16 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8227,16 +8230,16 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>97</v>
@@ -8245,7 +8248,7 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
@@ -8259,7 +8262,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8270,7 +8273,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8282,15 +8285,17 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>309</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8339,25 +8344,25 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>311</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8371,18 +8376,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8394,17 +8399,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8453,25 +8456,25 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
@@ -8485,11 +8488,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8502,26 +8505,24 @@
         <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8569,7 +8570,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8587,7 +8588,7 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
@@ -8601,41 +8602,43 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>434</v>
+        <v>130</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>435</v>
+        <v>326</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>436</v>
+        <v>327</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8659,13 +8662,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8683,25 +8686,25 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>328</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>363</v>
+        <v>128</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
@@ -8715,7 +8718,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8723,7 +8726,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>85</v>
@@ -8738,24 +8741,22 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>196</v>
+        <v>436</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P61" t="s" s="2">
-        <v>442</v>
-      </c>
+      <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8775,13 +8776,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -8799,10 +8800,10 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>85</v>
@@ -8817,7 +8818,7 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
@@ -8831,7 +8832,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8842,7 +8843,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -8854,24 +8855,24 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P62" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
         <v>79</v>
       </c>
@@ -8915,16 +8916,16 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>97</v>
@@ -8933,7 +8934,7 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
@@ -8947,7 +8948,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8958,7 +8959,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -8970,16 +8971,20 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>309</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9027,25 +9032,25 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>311</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
@@ -9059,18 +9064,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9082,17 +9087,15 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9141,25 +9144,25 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
@@ -9173,11 +9176,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9190,26 +9193,24 @@
         <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9275,7 +9276,7 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
@@ -9289,41 +9290,43 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>453</v>
+        <v>130</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>454</v>
+        <v>326</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9347,13 +9350,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9371,25 +9374,25 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>452</v>
+        <v>328</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>363</v>
+        <v>128</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
@@ -9403,7 +9406,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9411,10 +9414,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9426,20 +9429,18 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>461</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9463,13 +9464,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9487,16 +9488,16 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>97</v>
@@ -9505,20 +9506,136 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN67" t="s" s="2">
+      <c r="O68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN67">
+  <autoFilter ref="A1:AN68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9528,7 +9645,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>New QuestionnaireS37.Item extensions</t>
+    <t>S37 Specific Questionnaire Profile</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -450,7 +450,7 @@
 </t>
   </si>
   <si>
-    <t>S37 Extension to Questionnaire of Unknown status</t>
+    <t>Questionnaire UnknownStatus Extension</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1023,7 +1023,7 @@
 </t>
   </si>
   <si>
-    <t>S37 Extension to Questionnaire.item</t>
+    <t>Questionnaire.item Extension</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -3795,7 +3795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>192</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>87</v>
